--- a/lib/SAILFormat copy.xlsx
+++ b/lib/SAILFormat copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayash\Sailproj\SailProjGit\SAILcode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117AEB41-A559-4C66-B0C6-205610A090CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B019D438-988A-47BF-95B4-867B383ABFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93DD1A3E-79F5-40A0-9DE4-B4C0229D9C52}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Graph #</t>
   </si>
@@ -203,13 +203,13 @@
     <t>Dig. Temp</t>
   </si>
   <si>
-    <t>Display Truth Table</t>
-  </si>
-  <si>
-    <t>[optional]</t>
-  </si>
-  <si>
     <t>House keeping:</t>
+  </si>
+  <si>
+    <t>End Row</t>
+  </si>
+  <si>
+    <t>Start Row</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,9 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,9 +891,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758D255-7225-412E-BCCB-5D6A66A51808}">
-  <dimension ref="A2:V35"/>
+  <dimension ref="A2:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,36 +1261,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
         <v>32</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="D5">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1316,16 +1318,16 @@
       <c r="F7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="40" t="s">
+      <c r="H7" s="83"/>
+      <c r="I7" s="39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="80" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1348,12 +1350,12 @@
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1374,12 +1376,12 @@
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="82"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
@@ -1400,12 +1402,12 @@
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="82"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
@@ -1426,12 +1428,12 @@
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
@@ -1452,12 +1454,12 @@
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
@@ -1478,7 +1480,7 @@
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <v>5</v>
       </c>
     </row>
@@ -1487,48 +1489,48 @@
       <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="36" t="s">
+      <c r="G15" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="84" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="28">
@@ -1571,8 +1573,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="86"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="84"/>
       <c r="C17" s="29">
         <v>4</v>
       </c>
@@ -1613,8 +1615,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="86"/>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="84"/>
       <c r="C18" s="30">
         <v>4</v>
       </c>
@@ -1655,8 +1657,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="86" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="84" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="28">
@@ -1699,8 +1701,8 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="86"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="84"/>
       <c r="C20" s="29">
         <v>0</v>
       </c>
@@ -1741,50 +1743,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="86"/>
-      <c r="C21" s="46">
-        <v>1</v>
-      </c>
-      <c r="D21" s="47" t="s">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="84"/>
+      <c r="C21" s="45">
+        <v>1</v>
+      </c>
+      <c r="D21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="48">
-        <v>1</v>
-      </c>
-      <c r="G21" s="49">
+      <c r="F21" s="47">
+        <v>1</v>
+      </c>
+      <c r="G21" s="48">
         <v>36</v>
       </c>
-      <c r="H21" s="49">
-        <v>255</v>
-      </c>
-      <c r="I21" s="49">
+      <c r="H21" s="48">
+        <v>255</v>
+      </c>
+      <c r="I21" s="48">
         <v>12</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="49">
         <v>37</v>
       </c>
-      <c r="K21" s="50">
-        <v>255</v>
-      </c>
-      <c r="L21" s="50">
+      <c r="K21" s="49">
+        <v>255</v>
+      </c>
+      <c r="L21" s="49">
         <v>4</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="50">
         <v>39</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="50">
         <v>240</v>
       </c>
-      <c r="O21" s="52">
+      <c r="O21" s="51">
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="87" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="28">
@@ -1827,8 +1829,8 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="88"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="86"/>
       <c r="C23" s="29">
         <v>2</v>
       </c>
@@ -1869,8 +1871,8 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="88"/>
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="86"/>
       <c r="C24" s="30">
         <v>2</v>
       </c>
@@ -1911,8 +1913,8 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="89"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="87"/>
       <c r="C25" s="28">
         <v>3</v>
       </c>
@@ -1953,9 +1955,9 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="89"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="29">
         <v>3</v>
       </c>
@@ -1996,9 +1998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="84"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="29">
         <v>3</v>
       </c>
@@ -2039,52 +2041,52 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="83" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="52">
         <v>5</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <v>0</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="42">
         <v>78</v>
       </c>
-      <c r="H28" s="43">
-        <v>255</v>
-      </c>
-      <c r="I28" s="43">
+      <c r="H28" s="42">
+        <v>255</v>
+      </c>
+      <c r="I28" s="42">
         <v>4</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="43">
         <v>-1</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="43">
         <v>-1</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="43">
         <v>-1</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="44">
         <v>79</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="44">
         <v>240</v>
       </c>
-      <c r="O28" s="54">
+      <c r="O28" s="53">
         <v>-4</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="84"/>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="82"/>
       <c r="C29" s="29">
         <v>5</v>
       </c>
@@ -2125,332 +2127,284 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30" s="30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="27">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
-        <v>61</v>
-      </c>
-      <c r="H30" s="8">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="T31" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="67">
+        <v>135</v>
+      </c>
+      <c r="E32" s="67">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1">
+        <v>12500</v>
+      </c>
+      <c r="H32" s="54">
+        <v>39</v>
+      </c>
+      <c r="I32" s="54">
         <v>15</v>
       </c>
-      <c r="I30" s="8">
-        <v>8</v>
-      </c>
-      <c r="J30" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K30" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L30" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M30" s="10">
-        <v>62</v>
-      </c>
-      <c r="N30" s="10">
-        <v>255</v>
-      </c>
-      <c r="O30" s="11">
+      <c r="J32" s="55">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="O32" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="P32" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q32" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="R32" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="S32" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="T32" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="U32" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="V32" s="64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="68">
-        <v>135</v>
-      </c>
-      <c r="E33" s="68">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="1">
-        <v>12500</v>
-      </c>
-      <c r="H33" s="55">
-        <v>39</v>
-      </c>
-      <c r="I33" s="55">
-        <v>15</v>
-      </c>
-      <c r="J33" s="56">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="65" t="b">
+      <c r="K32" s="64" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M33" s="60" t="b">
+      <c r="L32" s="59" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N33" s="60" t="b">
+      <c r="M32" s="59" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O33" s="60" t="b">
+      <c r="N32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P33" s="60" t="b">
+      <c r="O32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="60" t="b">
+      <c r="P32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="R33" s="60" t="b">
+      <c r="Q32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S33" s="60" t="b">
+      <c r="R32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T33" s="60" t="b">
+      <c r="S32" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U33" s="78" t="b">
+      <c r="T32" s="76" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V33" s="80" t="b">
+      <c r="U32" s="78" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="59" t="s">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C33" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D33" s="1">
         <v>18</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E33" s="67">
         <v>11</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G33" s="1">
         <v>25000</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H33" s="54">
         <v>21</v>
       </c>
-      <c r="I34" s="55">
-        <v>255</v>
-      </c>
-      <c r="J34" s="56">
+      <c r="I33" s="54">
+        <v>255</v>
+      </c>
+      <c r="J33" s="55">
         <v>0</v>
       </c>
-      <c r="L34" s="65" t="b">
+      <c r="K33" s="64" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M34" s="60" t="b">
+      <c r="L33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="N34" s="60" t="b">
+      <c r="M33" s="59" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O34" s="60" t="b">
+      <c r="N33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P34" s="60" t="b">
+      <c r="O33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q34" s="60" t="b">
+      <c r="P33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="R34" s="60" t="b">
+      <c r="Q33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S34" s="60" t="b">
+      <c r="R33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T34" s="60" t="b">
+      <c r="S33" s="59" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U34" s="78" t="b">
+      <c r="T33" s="76" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V34" s="80" t="b">
+      <c r="U33" s="78" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="59" t="s">
+    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C34" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D34" s="74">
         <v>51</v>
       </c>
-      <c r="E35" s="75">
+      <c r="E34" s="74">
         <v>11</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G34" s="7">
         <v>25000</v>
       </c>
-      <c r="H35" s="57">
+      <c r="H34" s="56">
         <v>63</v>
       </c>
-      <c r="I35" s="57">
-        <v>255</v>
-      </c>
-      <c r="J35" s="58">
+      <c r="I34" s="56">
+        <v>255</v>
+      </c>
+      <c r="J34" s="57">
         <v>0</v>
       </c>
-      <c r="L35" s="66" t="b">
+      <c r="K34" s="65" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="M35" s="67" t="b">
+      <c r="L34" s="66" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="N35" s="67" t="b">
+      <c r="M34" s="66" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O35" s="67" t="b">
+      <c r="N34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P35" s="67" t="b">
+      <c r="O34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="67" t="b">
+      <c r="P34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="R35" s="67" t="b">
+      <c r="Q34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S35" s="67" t="b">
+      <c r="R34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T35" s="67" t="b">
+      <c r="S34" s="66" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U35" s="79" t="b">
+      <c r="T34" s="77" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V35" s="81" t="b">
+      <c r="U34" s="79" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2468,29 +2422,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N33:N35 M34" formula="1"/>
+    <ignoredError sqref="M32:M34 L33" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085EDC4FCBFEAC44C90B472F1F1C900EA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e45273375250329c822a0a405177b348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xmlns:ns4="6b4e13fc-0909-4af8-88c8-1f82cb55b253" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0e1ca657407e685f067414fb59c7721" ns3:_="" ns4:_="">
     <xsd:import namespace="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
@@ -2719,10 +2656,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3be8e3c0-2842-4b5c-b060-a331e5ce9465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B746C5C-9FCE-47B1-9B21-C70DB5E5E0E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917E079B-BC71-4494-9E92-79C803C2F6BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
+    <ds:schemaRef ds:uri="6b4e13fc-0909-4af8-88c8-1f82cb55b253"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2745,20 +2710,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917E079B-BC71-4494-9E92-79C803C2F6BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B746C5C-9FCE-47B1-9B21-C70DB5E5E0E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3be8e3c0-2842-4b5c-b060-a331e5ce9465"/>
-    <ds:schemaRef ds:uri="6b4e13fc-0909-4af8-88c8-1f82cb55b253"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>